--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Major Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA60E898-0633-43FA-8F30-C084A7B20A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905919B-490F-4D3E-A17F-0641EDEE8CD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Roll Number</t>
   </si>
@@ -63,7 +63,154 @@
     <t>20BQ1A1210</t>
   </si>
   <si>
-    <t>20BQ1A1288</t>
+    <t>20BQ1A1211</t>
+  </si>
+  <si>
+    <t>20BQ1A1212</t>
+  </si>
+  <si>
+    <t>20BQ1A1213</t>
+  </si>
+  <si>
+    <t>20BQ1A1214</t>
+  </si>
+  <si>
+    <t>20BQ1A1215</t>
+  </si>
+  <si>
+    <t>20BQ1A1216</t>
+  </si>
+  <si>
+    <t>20BQ1A1217</t>
+  </si>
+  <si>
+    <t>20BQ1A1218</t>
+  </si>
+  <si>
+    <t>20BQ1A1219</t>
+  </si>
+  <si>
+    <t>20BQ1A1220</t>
+  </si>
+  <si>
+    <t>20BQ1A1221</t>
+  </si>
+  <si>
+    <t>20BQ1A1222</t>
+  </si>
+  <si>
+    <t>20BQ1A1223</t>
+  </si>
+  <si>
+    <t>20BQ1A1224</t>
+  </si>
+  <si>
+    <t>20BQ1A1225</t>
+  </si>
+  <si>
+    <t>20BQ1A1226</t>
+  </si>
+  <si>
+    <t>20BQ1A1227</t>
+  </si>
+  <si>
+    <t>20BQ1A1228</t>
+  </si>
+  <si>
+    <t>20BQ1A1229</t>
+  </si>
+  <si>
+    <t>20BQ1A1230</t>
+  </si>
+  <si>
+    <t>20BQ1A1231</t>
+  </si>
+  <si>
+    <t>20BQ1A1232</t>
+  </si>
+  <si>
+    <t>20BQ1A1233</t>
+  </si>
+  <si>
+    <t>20BQ1A1234</t>
+  </si>
+  <si>
+    <t>20BQ1A1235</t>
+  </si>
+  <si>
+    <t>20BQ1A1236</t>
+  </si>
+  <si>
+    <t>20BQ1A1237</t>
+  </si>
+  <si>
+    <t>20BQ1A1238</t>
+  </si>
+  <si>
+    <t>20BQ1A1239</t>
+  </si>
+  <si>
+    <t>20BQ1A1240</t>
+  </si>
+  <si>
+    <t>20BQ1A1241</t>
+  </si>
+  <si>
+    <t>20BQ1A1242</t>
+  </si>
+  <si>
+    <t>20BQ1A1243</t>
+  </si>
+  <si>
+    <t>20BQ1A1244</t>
+  </si>
+  <si>
+    <t>20BQ1A1245</t>
+  </si>
+  <si>
+    <t>20BQ1A1246</t>
+  </si>
+  <si>
+    <t>20BQ1A1247</t>
+  </si>
+  <si>
+    <t>20BQ1A1248</t>
+  </si>
+  <si>
+    <t>20BQ1A1249</t>
+  </si>
+  <si>
+    <t>20BQ1A1250</t>
+  </si>
+  <si>
+    <t>20BQ1A1251</t>
+  </si>
+  <si>
+    <t>20BQ1A1252</t>
+  </si>
+  <si>
+    <t>20BQ1A1253</t>
+  </si>
+  <si>
+    <t>20BQ1A1254</t>
+  </si>
+  <si>
+    <t>20BQ1A1255</t>
+  </si>
+  <si>
+    <t>20BQ1A1256</t>
+  </si>
+  <si>
+    <t>20BQ1A1257</t>
+  </si>
+  <si>
+    <t>20BQ1A1258</t>
+  </si>
+  <si>
+    <t>20BQ1A1259</t>
+  </si>
+  <si>
+    <t>20BQ1A1260</t>
   </si>
 </sst>
 </file>
@@ -381,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +632,398 @@
         <v>12</v>
       </c>
       <c r="B12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
         <v>90</v>
       </c>
     </row>
